--- a/01_studies/01_Laborstudie ProVisioNET/Akquise/Schulen_Kontaktverfolgung_ProVisioNET_MK.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Akquise/Schulen_Kontaktverfolgung_ProVisioNET_MK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Akquise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71ADB343-3B7E-42B7-BC34-040D5CDA2D71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C4A5CE69-A586-4121-9F0C-DF88BDD62E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{B408FD40-D760-4EC2-9653-F0E4C67B9995}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="14652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontaktverfolgung" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="191">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,525 @@
   </si>
   <si>
     <t>Lage der Schule</t>
+  </si>
+  <si>
+    <t>Carl-Friedrich-Goerdeler-Oberschule Leipzig</t>
+  </si>
+  <si>
+    <t>Paul-Gruner-Str. 59, 04107 Leipzig</t>
+  </si>
+  <si>
+    <t>https://www.semper-schulen.de/allgemeinbildende-schulen/carl-friedrich-goerdeler-oberschule-leipzig/schulkonzept/</t>
+  </si>
+  <si>
+    <t>goerdeler-oberschule@semper-schulen.de</t>
+  </si>
+  <si>
+    <t>0341 / 2251378</t>
+  </si>
+  <si>
+    <t>Zentrum - Süd, Leipzig</t>
+  </si>
+  <si>
+    <t>Freie Grundschule Regenbogen Leipzig</t>
+  </si>
+  <si>
+    <t>Raschwitzer Straße 15, 04279 Leipzig</t>
+  </si>
+  <si>
+    <t>leipzig.grundschule@dpfa.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0341 / 33636 - 20 </t>
+  </si>
+  <si>
+    <t>Dölitz-Dösen, Leipzig</t>
+  </si>
+  <si>
+    <t>https://www.dpfa-leipzig.de/organisatorisches/kontakt</t>
+  </si>
+  <si>
+    <t>Bischöfliches Maria-Montessori-Schulzentrum Leipzig</t>
+  </si>
+  <si>
+    <t>Alte Salzstraße 61 &amp; 65, 04209 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 4157070 - Grundschule; 0341 / 41570760 - Oberschule&amp;Gymnasium</t>
+  </si>
+  <si>
+    <t>grundschule@montessori-leipzig.de; oberschule@montessori-leipzig.de; gymnasium@montessori-leipzig.de</t>
+  </si>
+  <si>
+    <t>https://www.montessori-leipzig.de/kontakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundschule Auguste </t>
+  </si>
+  <si>
+    <t>Grüne Gasse 21b, 04318 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 6992291</t>
+  </si>
+  <si>
+    <t>auguste@schugel.de</t>
+  </si>
+  <si>
+    <t>https://www.schugel.de/grundschule-auguste/</t>
+  </si>
+  <si>
+    <t>Grünau, Leipzig</t>
+  </si>
+  <si>
+    <t>Anger-Crottendorf / Reudnitz-Thonberg</t>
+  </si>
+  <si>
+    <t>Freie Oberschule Gohlis</t>
+  </si>
+  <si>
+    <t>Lützowstraße 8, 04155 Leipzig</t>
+  </si>
+  <si>
+    <t>Gohlis, Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 5647880</t>
+  </si>
+  <si>
+    <t> fog@schugel.de</t>
+  </si>
+  <si>
+    <t>https://www.schugel.de/freie-oberschule-gohlis/</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Evangelisches Schulzentrum Leipzig</t>
+  </si>
+  <si>
+    <t>Schletterstraße 7, 04107 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 99489 - 0</t>
+  </si>
+  <si>
+    <t>eva@schulzentrum.de</t>
+  </si>
+  <si>
+    <t>https://schulzentrum.de/sekretariat.html</t>
+  </si>
+  <si>
+    <t>Zentrum Süd, Leipzig</t>
+  </si>
+  <si>
+    <t>Leipzig International School</t>
+  </si>
+  <si>
+    <t>Könneritzstraße 47, 04229 Leipzig</t>
+  </si>
+  <si>
+    <t>https://www.lis.school/en/community.html</t>
+  </si>
+  <si>
+    <t>0341 / 39377681</t>
+  </si>
+  <si>
+    <t>primary-office@lis.school</t>
+  </si>
+  <si>
+    <t>Rahn Education - Freie Grundschule Clara Schumann</t>
+  </si>
+  <si>
+    <t>Inselstraße 18, 04103 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 39392110</t>
+  </si>
+  <si>
+    <t>https://rahn.education/freie-grundschule-clara-schumann-in-leipzig/kontakt.html</t>
+  </si>
+  <si>
+    <t>Freie Waldorfschule Leipzig</t>
+  </si>
+  <si>
+    <t>Berthastraße 15, 04357 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 4229891</t>
+  </si>
+  <si>
+    <t>https://www.waldorfschule-leipzig.de</t>
+  </si>
+  <si>
+    <t>kontakt@waldorfschule-leipzig.de</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Freie Schule Leipzig e.V.</t>
+  </si>
+  <si>
+    <t>Alte Salzstraße 67, 04209 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 3013343</t>
+  </si>
+  <si>
+    <t>buero@freie-schule-leipzig.de</t>
+  </si>
+  <si>
+    <t>https://www.freie-schule-leipzig.de/die-schule/kontakt/</t>
+  </si>
+  <si>
+    <t>Kontaktaufnahme primär per Mail gewünscht</t>
+  </si>
+  <si>
+    <t>AHF Grundschule</t>
+  </si>
+  <si>
+    <t>Puschstraße 9, 04103 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 2535023</t>
+  </si>
+  <si>
+    <t>https://www.ahfgrundschule.de</t>
+  </si>
+  <si>
+    <t>buero@ahfgrundschule.de</t>
+  </si>
+  <si>
+    <t>Musikalisch-Sportliches Gymnasium</t>
+  </si>
+  <si>
+    <t>Salomonstraße 10, 04103 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 39392510</t>
+  </si>
+  <si>
+    <t>https://rahn.education/musikalisch-sportliches-gymnasium-in-leipzig/kontakt.html</t>
+  </si>
+  <si>
+    <t>Schule für geistig Behinderte Schloss Schönefeld</t>
+  </si>
+  <si>
+    <t>Zeumerstraße 1, 04347 Leipzig</t>
+  </si>
+  <si>
+    <t>0341/ 2340675</t>
+  </si>
+  <si>
+    <t>lernenplus.schule@schloss-schoenefeld.de</t>
+  </si>
+  <si>
+    <t>https://lernenplus.schloss-schoenefeld.de/kontakt/</t>
+  </si>
+  <si>
+    <t>Schule für geistig Behinderte "Werner Vogel"</t>
+  </si>
+  <si>
+    <t>Hans-Marchwitza-Str. 12, 04279 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 33638362</t>
+  </si>
+  <si>
+    <t> peggy.gergs@diakonie-leipzig.de</t>
+  </si>
+  <si>
+    <t>https://www.diakonie-leipzig.de/schulangebot_werner_vogel_schulzentrum_schule_mit_dem_schwerpunkt_geistige_entwicklung_de.html</t>
+  </si>
+  <si>
+    <t>Jörgen-Schmidtchen-Weg 8, 04157 Leipzig</t>
+  </si>
+  <si>
+    <t>Grundschule forum thomanum</t>
+  </si>
+  <si>
+    <t>0341 / 97434421</t>
+  </si>
+  <si>
+    <t>grundschule@forum-thomanum.de</t>
+  </si>
+  <si>
+    <t>https://www.forum-thomanum.de/campus/grundschule-hort</t>
+  </si>
+  <si>
+    <t>Aktive Schule Leipzig</t>
+  </si>
+  <si>
+    <t>Eisenacher Straße 40a, 04155 Leipzig</t>
+  </si>
+  <si>
+    <t>0341 / 24066555</t>
+  </si>
+  <si>
+    <t>kontakt@aktive-schule-leipzig.de</t>
+  </si>
+  <si>
+    <t>Gohlis-Süd, Nord</t>
+  </si>
+  <si>
+    <t>https://www.aktive-schule-leipzig.de</t>
+  </si>
+  <si>
+    <t>Evangelisches Schulzentrum Grimma</t>
+  </si>
+  <si>
+    <t>Pestalozzistraße 2/4, 04668 Grimma</t>
+  </si>
+  <si>
+    <t>03437 /942111 (Grundschule); 03437/7067977 (Oberschule+Gymnasium)</t>
+  </si>
+  <si>
+    <t>schule@eva-schulze-mtl.de (Grundschule); sekretariat@eva-schulze-mtl.de (OS+GYM)</t>
+  </si>
+  <si>
+    <t>https://www.eva-schulze-mtl.de/grundschule-hort/leitung</t>
+  </si>
+  <si>
+    <t>Freies Gymnasium Borsdorf</t>
+  </si>
+  <si>
+    <t>Heinreich-Heine-Straße 33, 04451 Borsdorf</t>
+  </si>
+  <si>
+    <t>034291/31571</t>
+  </si>
+  <si>
+    <t>sekretariat@freies-gymnasium-borsdorf.de</t>
+  </si>
+  <si>
+    <t>https://www.freies-gymnasium-borsdorf.de/ueber-uns/kontakt/</t>
+  </si>
+  <si>
+    <t>Internat St. Augustin zu Grimma (Gymnasium)</t>
+  </si>
+  <si>
+    <t>Klosterstraße 1, 04668 Grimma</t>
+  </si>
+  <si>
+    <t>03437 / 7024893</t>
+  </si>
+  <si>
+    <t>http://www.internat-grimma.de/?m=0-0-0-8-0-x&amp;=</t>
+  </si>
+  <si>
+    <t>http://www.riesenklein.com/kontakt.html</t>
+  </si>
+  <si>
+    <t>kontakt@riesenklein.com</t>
+  </si>
+  <si>
+    <t>0345 / 2799980</t>
+  </si>
+  <si>
+    <t>Hoher Weg 4, 06120 Halle (Saale)</t>
+  </si>
+  <si>
+    <t>Freie Schule Riesenklein</t>
+  </si>
+  <si>
+    <t>Elisabeth-Gymnasium Halle</t>
+  </si>
+  <si>
+    <t>Murmansker Straße 14, 06130 Halle (Saale)</t>
+  </si>
+  <si>
+    <t>0345 / 1201230</t>
+  </si>
+  <si>
+    <t>sekreteriat@ess-elisabeth.de</t>
+  </si>
+  <si>
+    <t>https://www.ess-elisabeth.de/unsere-schule/geschichte/</t>
+  </si>
+  <si>
+    <t>Evangelische Grundschule Martin-Luther</t>
+  </si>
+  <si>
+    <t>Hauptstraße 17a, 06188 Oppin</t>
+  </si>
+  <si>
+    <t>034604 / 92520</t>
+  </si>
+  <si>
+    <t>info@egs-oppin.de</t>
+  </si>
+  <si>
+    <t>https://egs-oppin.de/kontakt/</t>
+  </si>
+  <si>
+    <t>Freie Waldorfschule Halle e.V.</t>
+  </si>
+  <si>
+    <t>Gutsstraße 4, 06132 Halle (Saale)</t>
+  </si>
+  <si>
+    <t>0345 / 777590</t>
+  </si>
+  <si>
+    <t>info@waldorfschule-halle.de</t>
+  </si>
+  <si>
+    <t>https://www.waldorfschule-halle.de/aktuelles/projekte-und-aktionen/</t>
+  </si>
+  <si>
+    <t>Georg-Cantor Gymnasium</t>
+  </si>
+  <si>
+    <t>Torstraße 3, 06110 Halle (Saale)</t>
+  </si>
+  <si>
+    <t>0345 / 6903156</t>
+  </si>
+  <si>
+    <t>schulleitung@cantor-gymnasium.de</t>
+  </si>
+  <si>
+    <t>http://www.cantor-gymnasium.de</t>
+  </si>
+  <si>
+    <t>Grundschule Sankt Franziskus</t>
+  </si>
+  <si>
+    <t>Murmansker Straße 13, 06130 Halle (Saale)</t>
+  </si>
+  <si>
+    <t>0345 / 2798050</t>
+  </si>
+  <si>
+    <t>sekretariat@ess-franziskus.de</t>
+  </si>
+  <si>
+    <t>https://www.franziskusschule-halle.de/kontakt-impressum/</t>
+  </si>
+  <si>
+    <t>Montessori Schule Halle</t>
+  </si>
+  <si>
+    <t>Franckeplatz 1, 06108 Halle (Saale)</t>
+  </si>
+  <si>
+    <t>0345 / 502125</t>
+  </si>
+  <si>
+    <t>schule@montessori-halle.de; schulleitung@montessori-halle.de</t>
+  </si>
+  <si>
+    <t>https://montessori-halle.de/cms/kontakt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caritas-Schule </t>
+  </si>
+  <si>
+    <t>Rödgener Landstraße 16, 04838 Eilenburg</t>
+  </si>
+  <si>
+    <t>http://www.caritas-schule-eilenburg.de</t>
+  </si>
+  <si>
+    <t>CULTUS + Freie Grundschule Eilenburg</t>
+  </si>
+  <si>
+    <t>Hallesche Str. 27, 04838 Eilenburg</t>
+  </si>
+  <si>
+    <t>schule@cultusplus.de</t>
+  </si>
+  <si>
+    <t>http://www.cultusplus.de/seite/293541/kontakt.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sankt Martin Grundschule </t>
+  </si>
+  <si>
+    <t>Leipziger Str. 20, 04509 Wiedemar</t>
+  </si>
+  <si>
+    <t>034207 / 91900</t>
+  </si>
+  <si>
+    <t>http://schule-zwochau.de</t>
+  </si>
+  <si>
+    <t>verwaltung@schule-zwochau.de (Schule)</t>
+  </si>
+  <si>
+    <t>Freie Grundschule Spergau</t>
+  </si>
+  <si>
+    <t>Am Kindergarten 2, 06237 Leuna OT Spergau</t>
+  </si>
+  <si>
+    <t>034446 /20402</t>
+  </si>
+  <si>
+    <t>https://www.pas-schulen.de/index.php/grundschule.html</t>
+  </si>
+  <si>
+    <t>info@PAS-Schulen.de</t>
+  </si>
+  <si>
+    <t>Lebenswelt Schule e.V. Zwenkau</t>
+  </si>
+  <si>
+    <t>Geschwister-Scholl-Weg 1, 04442 Zwenkau</t>
+  </si>
+  <si>
+    <t>info@lebenswelt-schule.de</t>
+  </si>
+  <si>
+    <t>https://www.lebenswelt-schule.de/index.php/schule/unsere-lehrer/</t>
+  </si>
+  <si>
+    <t>Bildungszentrum Püchau e.V.</t>
+  </si>
+  <si>
+    <t>Hauptstraße 4, 04828 Püchau</t>
+  </si>
+  <si>
+    <t>034203 / 442150</t>
+  </si>
+  <si>
+    <t>03425 / 810316</t>
+  </si>
+  <si>
+    <t>info@bildungszentrum-puechau.de</t>
+  </si>
+  <si>
+    <t>https://bildungszentrum-puechau.de/kontakt/</t>
+  </si>
+  <si>
+    <t>034446 / 20215 </t>
+  </si>
+  <si>
+    <t>Freies Gymnasium Großkorbetha</t>
+  </si>
+  <si>
+    <t>PAS  Sekundarschule Großkorbetha</t>
+  </si>
+  <si>
+    <t>Merseburger Str. 3a, 06688 Weißenfels</t>
+  </si>
+  <si>
+    <t>Merseburgerstr. 3a, 06688 Geoßkorbetha</t>
+  </si>
+  <si>
+    <t>034446 / 20215</t>
+  </si>
+  <si>
+    <t>https://www.pas-schulen.de/index.php/kontakt.html</t>
+  </si>
+  <si>
+    <t>03423 / 709397</t>
+  </si>
+  <si>
+    <t>03423 / 682430</t>
   </si>
 </sst>
 </file>
@@ -88,9 +607,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="167" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +647,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF495057"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A171B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +707,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -173,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -185,11 +733,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -197,9 +742,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Datum" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -209,6 +764,79 @@
     <cellStyle name="Uhrzeit" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="00000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="00000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="00000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="00000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -241,26 +869,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="00000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="6" tint="-0.499984740745262"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -268,59 +876,6 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="00000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="00000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="00000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -364,21 +919,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:L7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A2:L7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:L37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:L37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
     <tableColumn id="10" xr3:uid="{B743D81B-9F0F-4770-BB34-848703F04748}" name="Schul-ID" dataDxfId="11"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum Kontaktaufnahme" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{52DBB2AA-B029-4430-8456-B94D7B955F55}" name="Anschrift" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{D65921F3-3FBC-4D10-A0CA-738883640652}" name="Lage der Schule" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Telefonnummer" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{3FB1913E-BD49-4AAE-8290-D149C7E878A5}" name="E-Mail-Adresse" dataDxfId="7" dataCellStyle="Telefon"/>
-    <tableColumn id="15" xr3:uid="{DA5E5EAB-7566-43ED-9F24-88750DEC8B69}" name="Website " dataDxfId="1" dataCellStyle="Telefon"/>
-    <tableColumn id="13" xr3:uid="{B703622D-C4A7-44B1-9E3B-A9C1224DDF10}" name="Kontaktverlauf" dataDxfId="6" dataCellStyle="Telefon"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Notizen" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{AA86FB0A-E21A-44F7-B0ED-197FA869BA27}" name="Erhebungstermin" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{52DBB2AA-B029-4430-8456-B94D7B955F55}" name="Anschrift" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{D65921F3-3FBC-4D10-A0CA-738883640652}" name="Lage der Schule" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Telefonnummer" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{3FB1913E-BD49-4AAE-8290-D149C7E878A5}" name="E-Mail-Adresse" dataDxfId="5" dataCellStyle="Telefon"/>
+    <tableColumn id="15" xr3:uid="{DA5E5EAB-7566-43ED-9F24-88750DEC8B69}" name="Website " dataDxfId="4" dataCellStyle="Telefon"/>
+    <tableColumn id="13" xr3:uid="{B703622D-C4A7-44B1-9E3B-A9C1224DDF10}" name="Kontaktverlauf" dataDxfId="3" dataCellStyle="Telefon"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Notizen" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{AA86FB0A-E21A-44F7-B0ED-197FA869BA27}" name="Erhebungstermin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -714,30 +1269,30 @@
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="102.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="6"/>
@@ -752,7 +1307,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -790,136 +1345,959 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein. Verwenden Sie Überschriftsfilter, um bestimmte Einträge zu finden." sqref="A2:B6" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Namen ein." sqref="C2:E6" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Telefonnummer ein." sqref="F2:H6" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Telefonnummer ein." sqref="G2 H2:H4 F2:F4 F6:H6" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Anmerkungen ein." sqref="J2:J6" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Aktionspunkte ein." sqref="K2:L6" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift &quot;Ja&quot; oder &quot;Nein&quot; ein, wenn dieser Anruf nachverfolgt werden soll." sqref="I2:I6" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Erstellen Sie einen Telefongesprächstracker für ausgehende Anrufe auf diesem Arbeitsblatt. Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle. Geben Sie Details zu den ausgehenden Anrufen in der Tabelle unten ein." sqref="A1:L1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{6516BEF6-3BF1-EC46-B249-91F00E665D44}"/>
+    <hyperlink ref="G3" r:id="rId2" display="mailto:goerdeler-oberschule@semper-schulen.de" xr:uid="{25D51939-38B3-5B47-94EF-2BAA92DD87BA}"/>
+    <hyperlink ref="G4" r:id="rId3" display="mailto:leipzig.grundschule@dpfa.de" xr:uid="{83D110F1-7A06-6F48-86F4-A4A2D8C241F4}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{BBC56BEB-38C3-3748-AEE2-01A95510C37C}"/>
+    <hyperlink ref="G5" r:id="rId5" display="mailto:maria@montessori-leipzig.de" xr:uid="{95FE937B-AA08-6548-B913-3AA4735D0C22}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{28C50D21-FC99-4547-9D45-71D3CDE3356B}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{F71E8DB7-D25A-6045-8979-53D657E71D01}"/>
+    <hyperlink ref="G7" r:id="rId8" tooltip="mailto:fog@schugel.de?subject=" display="mailto:fog@schugel.de?subject=" xr:uid="{AE3BD8F0-C308-B546-946A-56944C73CD4C}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{75B0A99F-1F0A-8B47-A45B-710B66DE1ABC}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{76EC30DB-F25D-8F4B-B65A-F0A10C82CC93}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{B5D70274-3F77-6542-AAAB-053CBC3D58B2}"/>
+    <hyperlink ref="G12" r:id="rId12" xr:uid="{D61E8C85-A2EB-5043-9A7F-D247A914F611}"/>
+    <hyperlink ref="G13" r:id="rId13" xr:uid="{71728300-2658-8A43-8455-4B5674EEF9FB}"/>
+    <hyperlink ref="G15" r:id="rId14" display="mailto:lernenplus.schule@schloss-schoenefeld.de" xr:uid="{440D1357-4FAB-1E4D-A4D3-79C1B8D12B07}"/>
+    <hyperlink ref="G16" r:id="rId15" display="mailto:peggy.gergs@diakonie-leipzig.de" xr:uid="{D9ACFE07-19FF-DF45-BD08-7F228EED50B3}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{F94B6904-2896-B047-93B4-55C68131B458}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{3CDF00FC-EDBC-9143-A1EC-28FF5C90A188}"/>
+    <hyperlink ref="G19" r:id="rId18" display="schule@eva-schulze-mtl.de (Grundschule)" xr:uid="{FA63A0ED-8E13-5649-B81E-4CFE763F76BA}"/>
+    <hyperlink ref="G20" r:id="rId19" display="mailto:sekretariat@freies-gymnasium-borsdorf.de" xr:uid="{61540AAE-B351-B74F-A446-A2D56A2C0BCC}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{D0466E9F-AA37-4949-940A-566B01D45E07}"/>
+    <hyperlink ref="G23" r:id="rId21" xr:uid="{E4703528-8C25-7F46-AE9D-134F6D7FDF85}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{1EE0E2CD-476C-2D43-86BF-A6A01A6343D1}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{BA5D5617-63F4-474B-BBEE-621B28215D0B}"/>
+    <hyperlink ref="G26" r:id="rId24" xr:uid="{B5905A2F-2C83-4043-80A9-97300150A54B}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{0381DDBE-6329-1343-8339-6CAC3A6B471E}"/>
+    <hyperlink ref="G30" r:id="rId26" display="mailto:schule@cultusplus.de" xr:uid="{8E75BD65-F9EF-BD43-9C64-751F0BD1735D}"/>
+    <hyperlink ref="G31" r:id="rId27" display="mailto:verwaltung@schule-zwochau.de" xr:uid="{EF6BD3C7-A741-2D46-8B82-25507295F896}"/>
+    <hyperlink ref="G32" r:id="rId28" display="mailto:info@PAS-Schulen.de" xr:uid="{79A95780-6272-3A4A-A756-6C27D8A2832F}"/>
+    <hyperlink ref="G33" r:id="rId29" display="mailto:info@lebenswelt-schule.de" xr:uid="{929BE678-9ACD-6D44-A99C-2400A0474068}"/>
+    <hyperlink ref="G35" r:id="rId30" display="mailto:info@bildungszentrum-puechau.de" xr:uid="{DD0E2C7D-29C4-9B47-BDF1-6EC40AF07A20}"/>
+    <hyperlink ref="G34" r:id="rId31" display="mailto:info@PAS-Schulen.de" xr:uid="{1EE2CD60-87D0-414D-9249-61C9BE493A93}"/>
+    <hyperlink ref="G36" r:id="rId32" display="mailto:info@PAS-Schulen.de" xr:uid="{0BA3B165-6841-844A-8317-D44684FD15FD}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01_studies/01_Laborstudie ProVisioNET/Akquise/Schulen_Kontaktverfolgung_ProVisioNET_MK.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Akquise/Schulen_Kontaktverfolgung_ProVisioNET_MK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Akquise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C4A5CE69-A586-4121-9F0C-DF88BDD62E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{B408FD40-D760-4EC2-9653-F0E4C67B9995}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4BEC2E0F-7CA0-4313-9E1B-9C344D73D58D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="14652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="166" formatCode="00000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,32 +649,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF495057"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1A171B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -707,7 +700,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -739,22 +732,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Datum" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1272,21 +1278,21 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="102.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
+    <col min="8" max="8" width="49.88671875" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1345,893 +1351,878 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+    <row r="3" spans="1:12" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
-      <c r="A9" s="7">
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="7">
+      <c r="I9" s="17"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="7">
+      <c r="I10" s="17"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="7">
+      <c r="I11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="7">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="7">
+      <c r="I13" s="17"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="7">
+      <c r="I14" s="17"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="7">
+      <c r="I16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="7">
+      <c r="I17" s="17"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="7">
+      <c r="I18" s="17"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="7">
+      <c r="I19" s="17"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="7">
+      <c r="I20" s="17"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="7">
+      <c r="I21" s="17"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="7">
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="7">
+      <c r="I23" s="17"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="7">
+      <c r="I24" s="17"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="7">
+      <c r="I25" s="17"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="7">
+      <c r="I26" s="17"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="7">
+      <c r="I27" s="17"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1">
-      <c r="A29" s="7">
+      <c r="I28" s="17"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="7">
+      <c r="I29" s="17"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="20" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="7">
+      <c r="I30" s="17"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="7">
+      <c r="I31" s="17"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="7">
+      <c r="I32" s="17"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="7">
+      <c r="I33" s="17"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="7">
+      <c r="I34" s="17"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1">
-      <c r="A36" s="7">
+      <c r="I35" s="17"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7">
